--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$465</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15471" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16611" uniqueCount="774">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -573,7 +573,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>Entrada en el Bundle: contendrá un recurso o información</t>
@@ -1681,6 +1681,124 @@
     <t>Bundle.entry:carePlan.response.outcome</t>
   </si>
   <si>
+    <t>Bundle.entry:Condition</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Entrada en el Bundle: ConditionDiagnosticoLE</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.link</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.fullUrl</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condition {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/ConditionDiagnosticoLE}
+</t>
+  </si>
+  <si>
+    <t>Condición por la cual será tratado el paciente</t>
+  </si>
+  <si>
+    <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
+  </si>
+  <si>
+    <t>PPR message</t>
+  </si>
+  <si>
+    <t>Observation[classCode=OBS, moodCode=EVN, code=ASSERTION, value&lt;Diagnosis]</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.search</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.search.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.search.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.search.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.search.mode</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.search.score</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.request</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.request.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.request.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.request.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.request.method</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.request.url</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.request.ifNoneMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.request.ifModifiedSince</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.request.ifMatch</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.request.ifNoneExist</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.response</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.response.id</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.response.extension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.response.modifierExtension</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.response.status</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.response.location</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.response.etag</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.response.lastModified</t>
+  </si>
+  <si>
+    <t>Bundle.entry:Condition.response.outcome</t>
+  </si>
+  <si>
     <t>Bundle.entry:AllergyIntolerance</t>
   </si>
   <si>
@@ -1952,11 +2070,21 @@
     <t>Bundle.entry:SolicitudMedicamento.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">MedicationRequest
+    <t>Prescription
+Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedicationRequest {https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/MedicationRequestLE}
 </t>
   </si>
   <si>
     <t>Recurso base del estandar</t>
+  </si>
+  <si>
+    <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
+  </si>
+  <si>
+    <t>CombinedMedicationRequest</t>
   </si>
   <si>
     <t>Bundle.entry:SolicitudMedicamento.search</t>
@@ -2588,7 +2716,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN433"/>
+  <dimension ref="A1:AN465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2633,7 +2761,7 @@
     <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.0625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="75.36328125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
@@ -33465,7 +33593,7 @@
       </c>
       <c r="E273" s="2"/>
       <c r="F273" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G273" t="s" s="2">
         <v>79</v>
@@ -34141,7 +34269,7 @@
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
-        <v>547</v>
+        <v>77</v>
       </c>
       <c r="E279" s="2"/>
       <c r="F279" t="s" s="2">
@@ -34160,17 +34288,15 @@
         <v>77</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="L279" t="s" s="2">
+      <c r="M279" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M279" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N279" t="s" s="2">
-        <v>551</v>
-      </c>
+      <c r="N279" s="2"/>
       <c r="O279" s="2"/>
       <c r="P279" t="s" s="2">
         <v>77</v>
@@ -34234,10 +34360,10 @@
         <v>77</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>77</v>
+        <v>550</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>77</v>
@@ -34248,7 +34374,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>196</v>
@@ -34360,7 +34486,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>200</v>
@@ -34472,7 +34598,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>201</v>
@@ -34586,7 +34712,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>202</v>
@@ -34702,7 +34828,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>203</v>
@@ -34816,7 +34942,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>209</v>
@@ -34930,7 +35056,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>214</v>
@@ -35042,7 +35168,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>218</v>
@@ -35154,7 +35280,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>219</v>
@@ -35268,7 +35394,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>220</v>
@@ -35384,7 +35510,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>221</v>
@@ -35496,7 +35622,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>226</v>
@@ -35610,7 +35736,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>230</v>
@@ -35722,7 +35848,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>233</v>
@@ -35834,7 +35960,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>235</v>
@@ -35946,7 +36072,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>238</v>
@@ -36058,7 +36184,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>241</v>
@@ -36170,7 +36296,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>245</v>
@@ -36282,7 +36408,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>246</v>
@@ -36396,7 +36522,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>247</v>
@@ -36512,7 +36638,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>248</v>
@@ -36624,7 +36750,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>251</v>
@@ -36736,7 +36862,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>254</v>
@@ -36850,7 +36976,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>258</v>
@@ -36964,7 +37090,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>262</v>
@@ -37078,13 +37204,13 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D305" t="s" s="2">
         <v>77</v>
@@ -37109,7 +37235,7 @@
         <v>145</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M305" t="s" s="2">
         <v>178</v>
@@ -37192,7 +37318,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>182</v>
@@ -37304,7 +37430,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>183</v>
@@ -37418,7 +37544,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>184</v>
@@ -37534,7 +37660,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>185</v>
@@ -37646,7 +37772,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>188</v>
@@ -37760,14 +37886,14 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
@@ -37786,16 +37912,16 @@
         <v>77</v>
       </c>
       <c r="K311" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L311" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L311" t="s" s="2">
+      <c r="M311" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M311" t="s" s="2">
+      <c r="N311" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N311" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
@@ -37860,10 +37986,10 @@
         <v>77</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>592</v>
+        <v>77</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>552</v>
+        <v>591</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>77</v>
@@ -37874,7 +38000,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>196</v>
@@ -37986,7 +38112,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>200</v>
@@ -38098,7 +38224,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>201</v>
@@ -38212,7 +38338,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>202</v>
@@ -38328,7 +38454,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>203</v>
@@ -38442,7 +38568,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>209</v>
@@ -38556,7 +38682,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>214</v>
@@ -38668,7 +38794,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>218</v>
@@ -38780,7 +38906,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>219</v>
@@ -38894,7 +39020,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>220</v>
@@ -39010,7 +39136,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>221</v>
@@ -39122,7 +39248,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>226</v>
@@ -39236,7 +39362,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>230</v>
@@ -39348,7 +39474,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>233</v>
@@ -39460,7 +39586,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>235</v>
@@ -39572,7 +39698,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>238</v>
@@ -39684,7 +39810,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>241</v>
@@ -39796,7 +39922,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>245</v>
@@ -39908,7 +40034,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>246</v>
@@ -40022,7 +40148,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>247</v>
@@ -40138,7 +40264,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>248</v>
@@ -40250,7 +40376,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>251</v>
@@ -40362,7 +40488,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>254</v>
@@ -40476,7 +40602,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>258</v>
@@ -40590,7 +40716,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>262</v>
@@ -40704,13 +40830,13 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D337" t="s" s="2">
         <v>77</v>
@@ -40735,7 +40861,7 @@
         <v>145</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M337" t="s" s="2">
         <v>178</v>
@@ -40818,7 +40944,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>182</v>
@@ -40930,7 +41056,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>183</v>
@@ -41044,7 +41170,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>184</v>
@@ -41160,7 +41286,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>185</v>
@@ -41272,7 +41398,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>188</v>
@@ -41386,14 +41512,14 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
-        <v>77</v>
+        <v>626</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
@@ -41409,7 +41535,7 @@
         <v>77</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K343" t="s" s="2">
         <v>627</v>
@@ -41418,9 +41544,11 @@
         <v>628</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N343" s="2"/>
+        <v>629</v>
+      </c>
+      <c r="N343" t="s" s="2">
+        <v>630</v>
+      </c>
       <c r="O343" s="2"/>
       <c r="P343" t="s" s="2">
         <v>77</v>
@@ -41484,10 +41612,10 @@
         <v>77</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>77</v>
+        <v>631</v>
       </c>
       <c r="AL343" t="s" s="2">
-        <v>77</v>
+        <v>591</v>
       </c>
       <c r="AM343" t="s" s="2">
         <v>77</v>
@@ -41498,7 +41626,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>196</v>
@@ -41610,7 +41738,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>200</v>
@@ -41722,7 +41850,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>201</v>
@@ -41836,7 +41964,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>202</v>
@@ -41952,7 +42080,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>203</v>
@@ -42066,7 +42194,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>209</v>
@@ -42180,7 +42308,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>214</v>
@@ -42292,7 +42420,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>218</v>
@@ -42404,7 +42532,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>219</v>
@@ -42518,7 +42646,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>220</v>
@@ -42634,7 +42762,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>221</v>
@@ -42746,7 +42874,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>226</v>
@@ -42860,7 +42988,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>230</v>
@@ -42972,7 +43100,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>233</v>
@@ -43084,7 +43212,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>235</v>
@@ -43196,7 +43324,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>238</v>
@@ -43308,7 +43436,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>241</v>
@@ -43420,7 +43548,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>245</v>
@@ -43532,7 +43660,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>246</v>
@@ -43646,7 +43774,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>247</v>
@@ -43762,7 +43890,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>248</v>
@@ -43874,7 +44002,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>251</v>
@@ -43986,7 +44114,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>254</v>
@@ -44100,7 +44228,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>258</v>
@@ -44214,7 +44342,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>262</v>
@@ -44328,13 +44456,13 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>77</v>
@@ -44359,7 +44487,7 @@
         <v>145</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="M369" t="s" s="2">
         <v>178</v>
@@ -44442,7 +44570,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>182</v>
@@ -44554,7 +44682,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>183</v>
@@ -44668,7 +44796,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>184</v>
@@ -44784,7 +44912,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>185</v>
@@ -44896,7 +45024,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>188</v>
@@ -45010,14 +45138,14 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
-        <v>314</v>
+        <v>666</v>
       </c>
       <c r="E375" s="2"/>
       <c r="F375" t="s" s="2">
@@ -45036,13 +45164,13 @@
         <v>77</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>317</v>
+        <v>669</v>
       </c>
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
@@ -45108,10 +45236,10 @@
         <v>77</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AL375" t="s" s="2">
-        <v>319</v>
+        <v>670</v>
       </c>
       <c r="AM375" t="s" s="2">
         <v>77</v>
@@ -45122,7 +45250,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>196</v>
@@ -45234,7 +45362,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>200</v>
@@ -45346,7 +45474,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>201</v>
@@ -45460,7 +45588,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>202</v>
@@ -45576,7 +45704,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>203</v>
@@ -45690,7 +45818,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>209</v>
@@ -45804,7 +45932,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>214</v>
@@ -45916,7 +46044,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>218</v>
@@ -46028,7 +46156,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>219</v>
@@ -46142,7 +46270,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>220</v>
@@ -46258,7 +46386,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>221</v>
@@ -46370,7 +46498,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>226</v>
@@ -46484,7 +46612,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>230</v>
@@ -46596,7 +46724,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>233</v>
@@ -46708,7 +46836,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>235</v>
@@ -46820,7 +46948,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>238</v>
@@ -46932,7 +47060,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>241</v>
@@ -47044,7 +47172,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>245</v>
@@ -47156,7 +47284,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>246</v>
@@ -47270,7 +47398,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>247</v>
@@ -47386,7 +47514,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>248</v>
@@ -47498,7 +47626,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>251</v>
@@ -47610,7 +47738,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>254</v>
@@ -47724,7 +47852,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>258</v>
@@ -47838,7 +47966,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>262</v>
@@ -47952,13 +48080,13 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="D401" t="s" s="2">
         <v>77</v>
@@ -47968,7 +48096,7 @@
         <v>78</v>
       </c>
       <c r="G401" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H401" t="s" s="2">
         <v>77</v>
@@ -47983,7 +48111,7 @@
         <v>145</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="M401" t="s" s="2">
         <v>178</v>
@@ -48066,7 +48194,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>182</v>
@@ -48178,7 +48306,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>183</v>
@@ -48292,7 +48420,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>184</v>
@@ -48408,7 +48536,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>185</v>
@@ -48520,7 +48648,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>188</v>
@@ -48634,14 +48762,14 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" t="s" s="2">
-        <v>587</v>
+        <v>314</v>
       </c>
       <c r="E407" s="2"/>
       <c r="F407" t="s" s="2">
@@ -48660,17 +48788,15 @@
         <v>77</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N407" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N407" s="2"/>
       <c r="O407" s="2"/>
       <c r="P407" t="s" s="2">
         <v>77</v>
@@ -48734,10 +48860,10 @@
         <v>77</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>592</v>
+        <v>318</v>
       </c>
       <c r="AL407" t="s" s="2">
-        <v>552</v>
+        <v>319</v>
       </c>
       <c r="AM407" t="s" s="2">
         <v>77</v>
@@ -48748,7 +48874,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>196</v>
@@ -48860,7 +48986,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>200</v>
@@ -48972,7 +49098,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>201</v>
@@ -49086,7 +49212,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>202</v>
@@ -49202,7 +49328,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>203</v>
@@ -49316,7 +49442,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>209</v>
@@ -49430,7 +49556,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>214</v>
@@ -49542,7 +49668,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>218</v>
@@ -49654,7 +49780,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>219</v>
@@ -49768,7 +49894,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>220</v>
@@ -49884,7 +50010,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>221</v>
@@ -49996,7 +50122,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>226</v>
@@ -50110,7 +50236,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>230</v>
@@ -50222,7 +50348,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>233</v>
@@ -50334,7 +50460,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>235</v>
@@ -50446,7 +50572,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>238</v>
@@ -50558,7 +50684,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>241</v>
@@ -50670,7 +50796,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>245</v>
@@ -50782,7 +50908,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>246</v>
@@ -50896,7 +51022,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>247</v>
@@ -51012,7 +51138,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>248</v>
@@ -51124,7 +51250,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>251</v>
@@ -51236,7 +51362,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>254</v>
@@ -51350,7 +51476,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>258</v>
@@ -51464,7 +51590,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>262</v>
@@ -51578,12 +51704,14 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="B433" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="C433" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C433" t="s" s="2">
+        <v>733</v>
+      </c>
       <c r="D433" t="s" s="2">
         <v>77</v>
       </c>
@@ -51604,20 +51732,16 @@
         <v>88</v>
       </c>
       <c r="K433" t="s" s="2">
-        <v>727</v>
+        <v>145</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="M433" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="N433" t="s" s="2">
-        <v>730</v>
-      </c>
-      <c r="O433" t="s" s="2">
-        <v>731</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N433" s="2"/>
+      <c r="O433" s="2"/>
       <c r="P433" t="s" s="2">
         <v>77</v>
       </c>
@@ -51665,35 +51789,3663 @@
         <v>77</v>
       </c>
       <c r="AF433" t="s" s="2">
-        <v>726</v>
+        <v>175</v>
       </c>
       <c r="AG433" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH433" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI433" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ433" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM433" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN433" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="434" hidden="true">
+      <c r="A434" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="B434" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C434" s="2"/>
+      <c r="D434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E434" s="2"/>
+      <c r="F434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G434" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K434" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L434" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M434" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N434" s="2"/>
+      <c r="O434" s="2"/>
+      <c r="P434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q434" s="2"/>
+      <c r="R434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF434" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG434" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH434" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL434" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM434" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN434" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="435" hidden="true">
+      <c r="A435" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="B435" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C435" s="2"/>
+      <c r="D435" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E435" s="2"/>
+      <c r="F435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G435" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K435" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L435" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M435" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N435" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O435" s="2"/>
+      <c r="P435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q435" s="2"/>
+      <c r="R435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF435" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG435" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH435" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ435" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL435" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM435" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN435" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="436" hidden="true">
+      <c r="A436" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="B436" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C436" s="2"/>
+      <c r="D436" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E436" s="2"/>
+      <c r="F436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G436" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I436" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J436" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K436" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L436" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M436" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N436" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O436" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q436" s="2"/>
+      <c r="R436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF436" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG436" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH436" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ436" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL436" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM436" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN436" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="437" hidden="true">
+      <c r="A437" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="B437" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="C437" s="2"/>
+      <c r="D437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E437" s="2"/>
+      <c r="F437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G437" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J437" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K437" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L437" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M437" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="N437" s="2"/>
+      <c r="O437" s="2"/>
+      <c r="P437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q437" s="2"/>
+      <c r="R437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF437" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AG437" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH437" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ437" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM433" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN433" t="s" s="2">
+      <c r="AK437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM437" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN437" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="438" hidden="true">
+      <c r="A438" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="B438" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C438" s="2"/>
+      <c r="D438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E438" s="2"/>
+      <c r="F438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G438" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J438" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K438" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L438" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M438" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="N438" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="O438" s="2"/>
+      <c r="P438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q438" s="2"/>
+      <c r="R438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF438" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AG438" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH438" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ438" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM438" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN438" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="439" hidden="true">
+      <c r="A439" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="B439" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C439" s="2"/>
+      <c r="D439" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="E439" s="2"/>
+      <c r="F439" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G439" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H439" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K439" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="L439" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="M439" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N439" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="O439" s="2"/>
+      <c r="P439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q439" s="2"/>
+      <c r="R439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF439" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG439" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH439" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK439" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AL439" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AM439" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN439" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="440" hidden="true">
+      <c r="A440" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="B440" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C440" s="2"/>
+      <c r="D440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E440" s="2"/>
+      <c r="F440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G440" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J440" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K440" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L440" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M440" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N440" s="2"/>
+      <c r="O440" s="2"/>
+      <c r="P440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q440" s="2"/>
+      <c r="R440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF440" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG440" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH440" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI440" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AJ440" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM440" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN440" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="441" hidden="true">
+      <c r="A441" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="B441" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C441" s="2"/>
+      <c r="D441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E441" s="2"/>
+      <c r="F441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G441" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K441" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L441" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M441" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N441" s="2"/>
+      <c r="O441" s="2"/>
+      <c r="P441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q441" s="2"/>
+      <c r="R441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF441" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG441" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH441" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL441" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM441" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN441" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="442" hidden="true">
+      <c r="A442" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="B442" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C442" s="2"/>
+      <c r="D442" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E442" s="2"/>
+      <c r="F442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G442" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K442" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L442" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M442" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N442" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O442" s="2"/>
+      <c r="P442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q442" s="2"/>
+      <c r="R442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF442" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG442" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH442" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ442" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL442" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM442" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN442" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="443" hidden="true">
+      <c r="A443" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="B443" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C443" s="2"/>
+      <c r="D443" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E443" s="2"/>
+      <c r="F443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G443" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I443" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J443" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K443" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L443" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M443" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N443" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O443" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q443" s="2"/>
+      <c r="R443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF443" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG443" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH443" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ443" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL443" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM443" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN443" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="444" hidden="true">
+      <c r="A444" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="B444" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="C444" s="2"/>
+      <c r="D444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E444" s="2"/>
+      <c r="F444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G444" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J444" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K444" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L444" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M444" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="N444" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O444" s="2"/>
+      <c r="P444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q444" s="2"/>
+      <c r="R444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X444" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y444" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z444" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF444" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG444" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH444" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ444" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM444" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN444" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="445" hidden="true">
+      <c r="A445" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="B445" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C445" s="2"/>
+      <c r="D445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E445" s="2"/>
+      <c r="F445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G445" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J445" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K445" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L445" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="M445" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="N445" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="O445" s="2"/>
+      <c r="P445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q445" s="2"/>
+      <c r="R445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF445" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG445" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH445" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ445" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM445" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN445" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="446" hidden="true">
+      <c r="A446" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="B446" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C446" s="2"/>
+      <c r="D446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E446" s="2"/>
+      <c r="F446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G446" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J446" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K446" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L446" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M446" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N446" s="2"/>
+      <c r="O446" s="2"/>
+      <c r="P446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q446" s="2"/>
+      <c r="R446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF446" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AG446" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH446" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI446" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AJ446" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM446" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN446" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="447" hidden="true">
+      <c r="A447" t="s" s="2">
+        <v>750</v>
+      </c>
+      <c r="B447" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C447" s="2"/>
+      <c r="D447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E447" s="2"/>
+      <c r="F447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G447" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K447" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L447" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M447" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N447" s="2"/>
+      <c r="O447" s="2"/>
+      <c r="P447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q447" s="2"/>
+      <c r="R447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF447" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG447" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH447" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL447" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM447" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN447" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="448" hidden="true">
+      <c r="A448" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="B448" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="C448" s="2"/>
+      <c r="D448" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E448" s="2"/>
+      <c r="F448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G448" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K448" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L448" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M448" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N448" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O448" s="2"/>
+      <c r="P448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q448" s="2"/>
+      <c r="R448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF448" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG448" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH448" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ448" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL448" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM448" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN448" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="449" hidden="true">
+      <c r="A449" t="s" s="2">
+        <v>752</v>
+      </c>
+      <c r="B449" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C449" s="2"/>
+      <c r="D449" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E449" s="2"/>
+      <c r="F449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G449" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I449" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J449" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K449" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L449" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M449" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N449" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O449" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q449" s="2"/>
+      <c r="R449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF449" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG449" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH449" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ449" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL449" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM449" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN449" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="450" hidden="true">
+      <c r="A450" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="B450" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C450" s="2"/>
+      <c r="D450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E450" s="2"/>
+      <c r="F450" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G450" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J450" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K450" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L450" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M450" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N450" s="2"/>
+      <c r="O450" s="2"/>
+      <c r="P450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q450" s="2"/>
+      <c r="R450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X450" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="Y450" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z450" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AA450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF450" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AG450" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH450" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ450" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM450" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN450" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="451" hidden="true">
+      <c r="A451" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="B451" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="C451" s="2"/>
+      <c r="D451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E451" s="2"/>
+      <c r="F451" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G451" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J451" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K451" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L451" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M451" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N451" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O451" s="2"/>
+      <c r="P451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q451" s="2"/>
+      <c r="R451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF451" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG451" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH451" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ451" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM451" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN451" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="452" hidden="true">
+      <c r="A452" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="B452" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="C452" s="2"/>
+      <c r="D452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E452" s="2"/>
+      <c r="F452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G452" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J452" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K452" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L452" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M452" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N452" s="2"/>
+      <c r="O452" s="2"/>
+      <c r="P452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q452" s="2"/>
+      <c r="R452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF452" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG452" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH452" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ452" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM452" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN452" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="453" hidden="true">
+      <c r="A453" t="s" s="2">
+        <v>756</v>
+      </c>
+      <c r="B453" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="C453" s="2"/>
+      <c r="D453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E453" s="2"/>
+      <c r="F453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G453" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J453" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K453" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L453" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M453" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N453" s="2"/>
+      <c r="O453" s="2"/>
+      <c r="P453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q453" s="2"/>
+      <c r="R453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF453" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG453" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH453" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ453" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM453" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN453" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="454" hidden="true">
+      <c r="A454" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="B454" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C454" s="2"/>
+      <c r="D454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E454" s="2"/>
+      <c r="F454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G454" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J454" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K454" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L454" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M454" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N454" s="2"/>
+      <c r="O454" s="2"/>
+      <c r="P454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q454" s="2"/>
+      <c r="R454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF454" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG454" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH454" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ454" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM454" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN454" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="455" hidden="true">
+      <c r="A455" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="B455" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="C455" s="2"/>
+      <c r="D455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E455" s="2"/>
+      <c r="F455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G455" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J455" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K455" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L455" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M455" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N455" s="2"/>
+      <c r="O455" s="2"/>
+      <c r="P455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q455" s="2"/>
+      <c r="R455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF455" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AG455" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH455" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ455" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM455" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN455" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="456" hidden="true">
+      <c r="A456" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="B456" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="C456" s="2"/>
+      <c r="D456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E456" s="2"/>
+      <c r="F456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G456" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J456" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K456" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L456" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M456" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N456" s="2"/>
+      <c r="O456" s="2"/>
+      <c r="P456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q456" s="2"/>
+      <c r="R456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF456" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AG456" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH456" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI456" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AJ456" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM456" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN456" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="457" hidden="true">
+      <c r="A457" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B457" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="C457" s="2"/>
+      <c r="D457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E457" s="2"/>
+      <c r="F457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G457" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K457" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L457" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M457" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N457" s="2"/>
+      <c r="O457" s="2"/>
+      <c r="P457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q457" s="2"/>
+      <c r="R457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF457" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AG457" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH457" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL457" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM457" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN457" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="458" hidden="true">
+      <c r="A458" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="B458" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="C458" s="2"/>
+      <c r="D458" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="E458" s="2"/>
+      <c r="F458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G458" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K458" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L458" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M458" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N458" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O458" s="2"/>
+      <c r="P458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q458" s="2"/>
+      <c r="R458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF458" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AG458" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH458" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ458" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL458" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AM458" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN458" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="459" hidden="true">
+      <c r="A459" t="s" s="2">
+        <v>762</v>
+      </c>
+      <c r="B459" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="C459" s="2"/>
+      <c r="D459" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E459" s="2"/>
+      <c r="F459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G459" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I459" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J459" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K459" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L459" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M459" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N459" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O459" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="P459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q459" s="2"/>
+      <c r="R459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF459" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG459" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH459" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ459" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL459" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM459" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN459" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="460" hidden="true">
+      <c r="A460" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="B460" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="C460" s="2"/>
+      <c r="D460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E460" s="2"/>
+      <c r="F460" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G460" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J460" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K460" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L460" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M460" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N460" s="2"/>
+      <c r="O460" s="2"/>
+      <c r="P460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q460" s="2"/>
+      <c r="R460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF460" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG460" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH460" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ460" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM460" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN460" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="461" hidden="true">
+      <c r="A461" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="B461" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C461" s="2"/>
+      <c r="D461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E461" s="2"/>
+      <c r="F461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G461" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J461" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K461" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L461" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M461" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N461" s="2"/>
+      <c r="O461" s="2"/>
+      <c r="P461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q461" s="2"/>
+      <c r="R461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF461" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG461" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH461" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ461" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM461" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN461" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="462" hidden="true">
+      <c r="A462" t="s" s="2">
+        <v>765</v>
+      </c>
+      <c r="B462" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="C462" s="2"/>
+      <c r="D462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E462" s="2"/>
+      <c r="F462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G462" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J462" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K462" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L462" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M462" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N462" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O462" s="2"/>
+      <c r="P462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q462" s="2"/>
+      <c r="R462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF462" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG462" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH462" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ462" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM462" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN462" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="463" hidden="true">
+      <c r="A463" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="B463" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="C463" s="2"/>
+      <c r="D463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E463" s="2"/>
+      <c r="F463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G463" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J463" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K463" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L463" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M463" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N463" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="O463" s="2"/>
+      <c r="P463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q463" s="2"/>
+      <c r="R463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF463" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AG463" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH463" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ463" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM463" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN463" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="464" hidden="true">
+      <c r="A464" t="s" s="2">
+        <v>767</v>
+      </c>
+      <c r="B464" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="C464" s="2"/>
+      <c r="D464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E464" s="2"/>
+      <c r="F464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G464" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J464" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K464" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L464" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="M464" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="N464" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="O464" s="2"/>
+      <c r="P464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q464" s="2"/>
+      <c r="R464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF464" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AG464" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH464" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM464" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN464" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="465" hidden="true">
+      <c r="A465" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="B465" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="C465" s="2"/>
+      <c r="D465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E465" s="2"/>
+      <c r="F465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G465" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J465" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K465" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="L465" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="M465" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="N465" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="O465" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="P465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q465" s="2"/>
+      <c r="R465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF465" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="AG465" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH465" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ465" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM465" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN465" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN433">
+  <autoFilter ref="A1:AN465">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -51703,7 +55455,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI432">
+  <conditionalFormatting sqref="A2:AI464">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16611" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16611" uniqueCount="775">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -879,6 +879,9 @@
     <t>Bundle.entry:messageheader.fullUrl</t>
   </si>
   <si>
+    <t>Uri de identificación dentro del Bundle</t>
+  </si>
+  <si>
     <t>Bundle.entry:messageheader.resource</t>
   </si>
   <si>
@@ -1712,7 +1715,7 @@
 </t>
   </si>
   <si>
-    <t>Condición por la cual será tratado el paciente</t>
+    <t>Diagnóstico por la cual será tratado el paciente</t>
   </si>
   <si>
     <t>A clinical condition, problem, diagnosis, or other event, situation, issue, or clinical concept that has risen to a level of concern.</t>
@@ -2078,7 +2081,7 @@
 </t>
   </si>
   <si>
-    <t>Recurso base del estandar</t>
+    <t>Prescripción de algún medicamento indicado en el CarePlan</t>
   </si>
   <si>
     <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
@@ -2302,7 +2305,7 @@
 </t>
   </si>
   <si>
-    <t>Anmanesis</t>
+    <t>Anamnesis del paciente</t>
   </si>
   <si>
     <t>Bundle.entry:Anamnesis.search</t>
@@ -8797,7 +8800,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>77</v>
@@ -8809,7 +8812,7 @@
         <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>190</v>
@@ -8894,7 +8897,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>192</v>
@@ -8920,13 +8923,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8992,10 +8995,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -9006,7 +9009,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>196</v>
@@ -9118,7 +9121,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>200</v>
@@ -9230,7 +9233,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>201</v>
@@ -9344,7 +9347,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>202</v>
@@ -9460,7 +9463,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>203</v>
@@ -9574,7 +9577,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>209</v>
@@ -9688,7 +9691,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>214</v>
@@ -9800,7 +9803,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>218</v>
@@ -9912,7 +9915,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>219</v>
@@ -10026,7 +10029,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>220</v>
@@ -10142,7 +10145,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>221</v>
@@ -10254,7 +10257,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>226</v>
@@ -10368,7 +10371,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>230</v>
@@ -10480,7 +10483,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>233</v>
@@ -10592,7 +10595,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>235</v>
@@ -10704,7 +10707,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>238</v>
@@ -10816,7 +10819,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>241</v>
@@ -10928,7 +10931,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>245</v>
@@ -11040,7 +11043,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>246</v>
@@ -11154,7 +11157,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>247</v>
@@ -11270,7 +11273,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>248</v>
@@ -11382,7 +11385,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>251</v>
@@ -11494,7 +11497,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>254</v>
@@ -11608,7 +11611,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>258</v>
@@ -11722,7 +11725,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>262</v>
@@ -11836,13 +11839,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -11867,7 +11870,7 @@
         <v>145</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>178</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>182</v>
@@ -12062,7 +12065,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>183</v>
@@ -12176,7 +12179,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>184</v>
@@ -12292,7 +12295,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>185</v>
@@ -12404,7 +12407,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>188</v>
@@ -12415,13 +12418,13 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -12433,7 +12436,7 @@
         <v>101</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>190</v>
@@ -12518,14 +12521,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12544,13 +12547,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12616,10 +12619,10 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -12630,7 +12633,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>196</v>
@@ -12742,7 +12745,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>200</v>
@@ -12854,7 +12857,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>201</v>
@@ -12968,7 +12971,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>202</v>
@@ -13084,7 +13087,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>203</v>
@@ -13198,7 +13201,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>209</v>
@@ -13312,7 +13315,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>214</v>
@@ -13424,7 +13427,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>218</v>
@@ -13536,7 +13539,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>219</v>
@@ -13650,7 +13653,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>220</v>
@@ -13766,7 +13769,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>221</v>
@@ -13878,7 +13881,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>226</v>
@@ -13992,7 +13995,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>230</v>
@@ -14104,7 +14107,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>233</v>
@@ -14216,7 +14219,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>235</v>
@@ -14328,7 +14331,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>238</v>
@@ -14440,7 +14443,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>241</v>
@@ -14552,7 +14555,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>245</v>
@@ -14664,7 +14667,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>246</v>
@@ -14778,7 +14781,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>247</v>
@@ -14894,7 +14897,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>248</v>
@@ -15006,7 +15009,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>251</v>
@@ -15118,7 +15121,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>254</v>
@@ -15232,7 +15235,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>258</v>
@@ -15346,7 +15349,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>262</v>
@@ -15460,13 +15463,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -15491,7 +15494,7 @@
         <v>145</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>178</v>
@@ -15574,7 +15577,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>182</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>183</v>
@@ -15800,7 +15803,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>184</v>
@@ -15916,7 +15919,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>185</v>
@@ -16028,7 +16031,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>188</v>
@@ -16039,13 +16042,13 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>77</v>
@@ -16057,7 +16060,7 @@
         <v>101</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>190</v>
@@ -16142,7 +16145,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>192</v>
@@ -16168,13 +16171,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16240,10 +16243,10 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
@@ -16254,7 +16257,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>196</v>
@@ -16366,7 +16369,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>200</v>
@@ -16478,7 +16481,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>201</v>
@@ -16592,7 +16595,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>202</v>
@@ -16708,7 +16711,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>203</v>
@@ -16822,7 +16825,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>209</v>
@@ -16936,7 +16939,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>214</v>
@@ -17048,7 +17051,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>218</v>
@@ -17160,7 +17163,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>219</v>
@@ -17274,7 +17277,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>220</v>
@@ -17390,7 +17393,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>221</v>
@@ -17502,7 +17505,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>226</v>
@@ -17616,7 +17619,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>230</v>
@@ -17728,7 +17731,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>233</v>
@@ -17840,7 +17843,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>235</v>
@@ -17952,7 +17955,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>238</v>
@@ -18064,7 +18067,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>241</v>
@@ -18176,7 +18179,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>245</v>
@@ -18288,7 +18291,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>246</v>
@@ -18402,7 +18405,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>247</v>
@@ -18518,7 +18521,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>248</v>
@@ -18630,7 +18633,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>251</v>
@@ -18742,7 +18745,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>254</v>
@@ -18856,7 +18859,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>258</v>
@@ -18970,7 +18973,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>262</v>
@@ -19084,13 +19087,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -19115,7 +19118,7 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>178</v>
@@ -19198,7 +19201,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>182</v>
@@ -19310,7 +19313,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>183</v>
@@ -19424,7 +19427,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>184</v>
@@ -19540,7 +19543,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>185</v>
@@ -19652,7 +19655,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>188</v>
@@ -19663,13 +19666,13 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>77</v>
@@ -19681,7 +19684,7 @@
         <v>101</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>190</v>
@@ -19766,7 +19769,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>192</v>
@@ -19792,13 +19795,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19864,10 +19867,10 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>77</v>
@@ -19878,7 +19881,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>196</v>
@@ -19990,7 +19993,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>200</v>
@@ -20102,7 +20105,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>201</v>
@@ -20216,7 +20219,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>202</v>
@@ -20332,7 +20335,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>203</v>
@@ -20446,7 +20449,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>209</v>
@@ -20560,7 +20563,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>214</v>
@@ -20672,7 +20675,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>218</v>
@@ -20784,7 +20787,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>219</v>
@@ -20898,7 +20901,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>220</v>
@@ -21014,7 +21017,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>221</v>
@@ -21126,7 +21129,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>226</v>
@@ -21240,7 +21243,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>230</v>
@@ -21352,7 +21355,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>233</v>
@@ -21464,7 +21467,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>235</v>
@@ -21576,7 +21579,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>238</v>
@@ -21688,7 +21691,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>241</v>
@@ -21800,7 +21803,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>245</v>
@@ -21912,7 +21915,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>246</v>
@@ -22026,7 +22029,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>247</v>
@@ -22142,7 +22145,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>248</v>
@@ -22254,7 +22257,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>251</v>
@@ -22366,7 +22369,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>254</v>
@@ -22480,7 +22483,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>258</v>
@@ -22594,7 +22597,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>262</v>
@@ -22708,13 +22711,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -22739,7 +22742,7 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>178</v>
@@ -22822,7 +22825,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>182</v>
@@ -22934,7 +22937,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>183</v>
@@ -23048,7 +23051,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>184</v>
@@ -23164,7 +23167,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>185</v>
@@ -23276,7 +23279,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>188</v>
@@ -23287,13 +23290,13 @@
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>77</v>
@@ -23305,7 +23308,7 @@
         <v>101</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>190</v>
@@ -23390,7 +23393,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>192</v>
@@ -23416,13 +23419,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -23488,10 +23491,10 @@
         <v>77</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -23502,7 +23505,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>196</v>
@@ -23614,7 +23617,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>200</v>
@@ -23726,7 +23729,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>201</v>
@@ -23840,7 +23843,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>202</v>
@@ -23956,7 +23959,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>203</v>
@@ -24070,7 +24073,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>209</v>
@@ -24184,7 +24187,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>214</v>
@@ -24296,7 +24299,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>218</v>
@@ -24408,7 +24411,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>219</v>
@@ -24522,7 +24525,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>220</v>
@@ -24638,7 +24641,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>221</v>
@@ -24750,7 +24753,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>226</v>
@@ -24864,7 +24867,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>230</v>
@@ -24976,7 +24979,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>233</v>
@@ -25088,7 +25091,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>235</v>
@@ -25200,7 +25203,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>238</v>
@@ -25312,7 +25315,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>241</v>
@@ -25424,7 +25427,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>245</v>
@@ -25536,7 +25539,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>246</v>
@@ -25650,7 +25653,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>247</v>
@@ -25766,7 +25769,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>248</v>
@@ -25878,7 +25881,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>251</v>
@@ -25990,7 +25993,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>254</v>
@@ -26104,7 +26107,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>258</v>
@@ -26218,7 +26221,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>262</v>
@@ -26332,13 +26335,13 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -26363,7 +26366,7 @@
         <v>145</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>178</v>
@@ -26446,7 +26449,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>182</v>
@@ -26558,7 +26561,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>183</v>
@@ -26672,7 +26675,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>184</v>
@@ -26788,7 +26791,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>185</v>
@@ -26900,7 +26903,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>188</v>
@@ -26911,13 +26914,13 @@
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>77</v>
@@ -26929,7 +26932,7 @@
         <v>101</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>190</v>
@@ -27014,14 +27017,14 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -27040,13 +27043,13 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -27115,7 +27118,7 @@
         <v>77</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>77</v>
@@ -27126,7 +27129,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>196</v>
@@ -27238,7 +27241,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>200</v>
@@ -27350,7 +27353,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>201</v>
@@ -27464,7 +27467,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>202</v>
@@ -27580,7 +27583,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>203</v>
@@ -27694,7 +27697,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>209</v>
@@ -27808,7 +27811,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>214</v>
@@ -27920,7 +27923,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>218</v>
@@ -28032,7 +28035,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>219</v>
@@ -28146,7 +28149,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>220</v>
@@ -28262,7 +28265,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>221</v>
@@ -28374,7 +28377,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>226</v>
@@ -28488,7 +28491,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>230</v>
@@ -28600,7 +28603,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>233</v>
@@ -28712,7 +28715,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>235</v>
@@ -28824,7 +28827,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>238</v>
@@ -28936,7 +28939,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>241</v>
@@ -29048,7 +29051,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>245</v>
@@ -29160,7 +29163,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>246</v>
@@ -29274,7 +29277,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>247</v>
@@ -29390,7 +29393,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>248</v>
@@ -29502,7 +29505,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>251</v>
@@ -29614,7 +29617,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>254</v>
@@ -29728,7 +29731,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>258</v>
@@ -29842,7 +29845,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>262</v>
@@ -29956,13 +29959,13 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B241" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>77</v>
@@ -29987,7 +29990,7 @@
         <v>145</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M241" t="s" s="2">
         <v>178</v>
@@ -30070,7 +30073,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B242" t="s" s="2">
         <v>182</v>
@@ -30182,7 +30185,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>183</v>
@@ -30296,7 +30299,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>184</v>
@@ -30412,7 +30415,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B245" t="s" s="2">
         <v>185</v>
@@ -30524,7 +30527,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B246" t="s" s="2">
         <v>188</v>
@@ -30535,13 +30538,13 @@
       </c>
       <c r="E246" s="2"/>
       <c r="F246" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H246" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I246" t="s" s="2">
         <v>77</v>
@@ -30553,7 +30556,7 @@
         <v>101</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M246" t="s" s="2">
         <v>190</v>
@@ -30638,14 +30641,14 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B247" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E247" s="2"/>
       <c r="F247" t="s" s="2">
@@ -30664,13 +30667,13 @@
         <v>77</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -30739,7 +30742,7 @@
         <v>77</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AM247" t="s" s="2">
         <v>77</v>
@@ -30750,7 +30753,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>196</v>
@@ -30862,7 +30865,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B249" t="s" s="2">
         <v>200</v>
@@ -30974,7 +30977,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B250" t="s" s="2">
         <v>201</v>
@@ -31088,7 +31091,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B251" t="s" s="2">
         <v>202</v>
@@ -31204,7 +31207,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B252" t="s" s="2">
         <v>203</v>
@@ -31318,7 +31321,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>209</v>
@@ -31432,7 +31435,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>214</v>
@@ -31544,7 +31547,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>218</v>
@@ -31656,7 +31659,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>219</v>
@@ -31770,7 +31773,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B257" t="s" s="2">
         <v>220</v>
@@ -31886,7 +31889,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B258" t="s" s="2">
         <v>221</v>
@@ -31998,7 +32001,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B259" t="s" s="2">
         <v>226</v>
@@ -32112,7 +32115,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B260" t="s" s="2">
         <v>230</v>
@@ -32224,7 +32227,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B261" t="s" s="2">
         <v>233</v>
@@ -32336,7 +32339,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B262" t="s" s="2">
         <v>235</v>
@@ -32448,7 +32451,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B263" t="s" s="2">
         <v>238</v>
@@ -32560,7 +32563,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B264" t="s" s="2">
         <v>241</v>
@@ -32672,7 +32675,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B265" t="s" s="2">
         <v>245</v>
@@ -32784,7 +32787,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B266" t="s" s="2">
         <v>246</v>
@@ -32898,7 +32901,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B267" t="s" s="2">
         <v>247</v>
@@ -33014,7 +33017,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>248</v>
@@ -33126,7 +33129,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B269" t="s" s="2">
         <v>251</v>
@@ -33238,7 +33241,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B270" t="s" s="2">
         <v>254</v>
@@ -33352,7 +33355,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B271" t="s" s="2">
         <v>258</v>
@@ -33466,7 +33469,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B272" t="s" s="2">
         <v>262</v>
@@ -33580,13 +33583,13 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>77</v>
@@ -33611,7 +33614,7 @@
         <v>145</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M273" t="s" s="2">
         <v>178</v>
@@ -33694,7 +33697,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B274" t="s" s="2">
         <v>182</v>
@@ -33806,7 +33809,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B275" t="s" s="2">
         <v>183</v>
@@ -33920,7 +33923,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>184</v>
@@ -34036,7 +34039,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>185</v>
@@ -34148,7 +34151,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>188</v>
@@ -34159,13 +34162,13 @@
       </c>
       <c r="E278" s="2"/>
       <c r="F278" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G278" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H278" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I278" t="s" s="2">
         <v>77</v>
@@ -34177,7 +34180,7 @@
         <v>101</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M278" t="s" s="2">
         <v>190</v>
@@ -34262,7 +34265,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>192</v>
@@ -34288,13 +34291,13 @@
         <v>77</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -34360,10 +34363,10 @@
         <v>77</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AL279" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AM279" t="s" s="2">
         <v>77</v>
@@ -34374,7 +34377,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>196</v>
@@ -34486,7 +34489,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>200</v>
@@ -34598,7 +34601,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>201</v>
@@ -34712,7 +34715,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>202</v>
@@ -34828,7 +34831,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>203</v>
@@ -34942,7 +34945,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>209</v>
@@ -35056,7 +35059,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>214</v>
@@ -35168,7 +35171,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>218</v>
@@ -35280,7 +35283,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>219</v>
@@ -35394,7 +35397,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>220</v>
@@ -35510,7 +35513,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>221</v>
@@ -35622,7 +35625,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>226</v>
@@ -35736,7 +35739,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>230</v>
@@ -35848,7 +35851,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>233</v>
@@ -35960,7 +35963,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>235</v>
@@ -36072,7 +36075,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>238</v>
@@ -36184,7 +36187,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B296" t="s" s="2">
         <v>241</v>
@@ -36296,7 +36299,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B297" t="s" s="2">
         <v>245</v>
@@ -36408,7 +36411,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B298" t="s" s="2">
         <v>246</v>
@@ -36522,7 +36525,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B299" t="s" s="2">
         <v>247</v>
@@ -36638,7 +36641,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B300" t="s" s="2">
         <v>248</v>
@@ -36750,7 +36753,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B301" t="s" s="2">
         <v>251</v>
@@ -36862,7 +36865,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B302" t="s" s="2">
         <v>254</v>
@@ -36976,7 +36979,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B303" t="s" s="2">
         <v>258</v>
@@ -37090,7 +37093,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B304" t="s" s="2">
         <v>262</v>
@@ -37204,13 +37207,13 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B305" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D305" t="s" s="2">
         <v>77</v>
@@ -37235,7 +37238,7 @@
         <v>145</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M305" t="s" s="2">
         <v>178</v>
@@ -37318,7 +37321,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B306" t="s" s="2">
         <v>182</v>
@@ -37430,7 +37433,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B307" t="s" s="2">
         <v>183</v>
@@ -37544,7 +37547,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B308" t="s" s="2">
         <v>184</v>
@@ -37660,7 +37663,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>185</v>
@@ -37772,7 +37775,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>188</v>
@@ -37783,13 +37786,13 @@
       </c>
       <c r="E310" s="2"/>
       <c r="F310" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G310" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H310" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I310" t="s" s="2">
         <v>77</v>
@@ -37801,7 +37804,7 @@
         <v>101</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M310" t="s" s="2">
         <v>190</v>
@@ -37886,14 +37889,14 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" t="s" s="2">
@@ -37912,16 +37915,16 @@
         <v>77</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O311" s="2"/>
       <c r="P311" t="s" s="2">
@@ -37989,7 +37992,7 @@
         <v>77</v>
       </c>
       <c r="AL311" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AM311" t="s" s="2">
         <v>77</v>
@@ -38000,7 +38003,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>196</v>
@@ -38112,7 +38115,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>200</v>
@@ -38224,7 +38227,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B314" t="s" s="2">
         <v>201</v>
@@ -38338,7 +38341,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B315" t="s" s="2">
         <v>202</v>
@@ -38454,7 +38457,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B316" t="s" s="2">
         <v>203</v>
@@ -38568,7 +38571,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B317" t="s" s="2">
         <v>209</v>
@@ -38682,7 +38685,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>214</v>
@@ -38794,7 +38797,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B319" t="s" s="2">
         <v>218</v>
@@ -38906,7 +38909,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B320" t="s" s="2">
         <v>219</v>
@@ -39020,7 +39023,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B321" t="s" s="2">
         <v>220</v>
@@ -39136,7 +39139,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B322" t="s" s="2">
         <v>221</v>
@@ -39248,7 +39251,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>226</v>
@@ -39362,7 +39365,7 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>230</v>
@@ -39474,7 +39477,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>233</v>
@@ -39586,7 +39589,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>235</v>
@@ -39698,7 +39701,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>238</v>
@@ -39810,7 +39813,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>241</v>
@@ -39922,7 +39925,7 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>245</v>
@@ -40034,7 +40037,7 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>246</v>
@@ -40148,7 +40151,7 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>247</v>
@@ -40264,7 +40267,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B332" t="s" s="2">
         <v>248</v>
@@ -40376,7 +40379,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>251</v>
@@ -40488,7 +40491,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B334" t="s" s="2">
         <v>254</v>
@@ -40602,7 +40605,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B335" t="s" s="2">
         <v>258</v>
@@ -40716,7 +40719,7 @@
     </row>
     <row r="336" hidden="true">
       <c r="A336" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B336" t="s" s="2">
         <v>262</v>
@@ -40830,13 +40833,13 @@
     </row>
     <row r="337" hidden="true">
       <c r="A337" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D337" t="s" s="2">
         <v>77</v>
@@ -40861,7 +40864,7 @@
         <v>145</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="M337" t="s" s="2">
         <v>178</v>
@@ -40944,7 +40947,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>182</v>
@@ -41056,7 +41059,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>183</v>
@@ -41170,7 +41173,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>184</v>
@@ -41286,7 +41289,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>185</v>
@@ -41398,7 +41401,7 @@
     </row>
     <row r="342" hidden="true">
       <c r="A342" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>188</v>
@@ -41409,13 +41412,13 @@
       </c>
       <c r="E342" s="2"/>
       <c r="F342" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G342" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H342" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I342" t="s" s="2">
         <v>77</v>
@@ -41427,7 +41430,7 @@
         <v>101</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M342" t="s" s="2">
         <v>190</v>
@@ -41512,14 +41515,14 @@
     </row>
     <row r="343" hidden="true">
       <c r="A343" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B343" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E343" s="2"/>
       <c r="F343" t="s" s="2">
@@ -41538,16 +41541,16 @@
         <v>77</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O343" s="2"/>
       <c r="P343" t="s" s="2">
@@ -41612,10 +41615,10 @@
         <v>77</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL343" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AM343" t="s" s="2">
         <v>77</v>
@@ -41626,7 +41629,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B344" t="s" s="2">
         <v>196</v>
@@ -41738,7 +41741,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B345" t="s" s="2">
         <v>200</v>
@@ -41850,7 +41853,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>201</v>
@@ -41964,7 +41967,7 @@
     </row>
     <row r="347" hidden="true">
       <c r="A347" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B347" t="s" s="2">
         <v>202</v>
@@ -42080,7 +42083,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B348" t="s" s="2">
         <v>203</v>
@@ -42194,7 +42197,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B349" t="s" s="2">
         <v>209</v>
@@ -42308,7 +42311,7 @@
     </row>
     <row r="350" hidden="true">
       <c r="A350" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B350" t="s" s="2">
         <v>214</v>
@@ -42420,7 +42423,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B351" t="s" s="2">
         <v>218</v>
@@ -42532,7 +42535,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B352" t="s" s="2">
         <v>219</v>
@@ -42646,7 +42649,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B353" t="s" s="2">
         <v>220</v>
@@ -42762,7 +42765,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B354" t="s" s="2">
         <v>221</v>
@@ -42874,7 +42877,7 @@
     </row>
     <row r="355" hidden="true">
       <c r="A355" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>226</v>
@@ -42988,7 +42991,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B356" t="s" s="2">
         <v>230</v>
@@ -43100,7 +43103,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B357" t="s" s="2">
         <v>233</v>
@@ -43212,7 +43215,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B358" t="s" s="2">
         <v>235</v>
@@ -43324,7 +43327,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B359" t="s" s="2">
         <v>238</v>
@@ -43436,7 +43439,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B360" t="s" s="2">
         <v>241</v>
@@ -43548,7 +43551,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B361" t="s" s="2">
         <v>245</v>
@@ -43660,7 +43663,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B362" t="s" s="2">
         <v>246</v>
@@ -43774,7 +43777,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B363" t="s" s="2">
         <v>247</v>
@@ -43890,7 +43893,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>248</v>
@@ -44002,7 +44005,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B365" t="s" s="2">
         <v>251</v>
@@ -44114,7 +44117,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B366" t="s" s="2">
         <v>254</v>
@@ -44228,7 +44231,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B367" t="s" s="2">
         <v>258</v>
@@ -44342,7 +44345,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B368" t="s" s="2">
         <v>262</v>
@@ -44456,13 +44459,13 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B369" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D369" t="s" s="2">
         <v>77</v>
@@ -44487,7 +44490,7 @@
         <v>145</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M369" t="s" s="2">
         <v>178</v>
@@ -44570,7 +44573,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B370" t="s" s="2">
         <v>182</v>
@@ -44682,7 +44685,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B371" t="s" s="2">
         <v>183</v>
@@ -44796,7 +44799,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B372" t="s" s="2">
         <v>184</v>
@@ -44912,7 +44915,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B373" t="s" s="2">
         <v>185</v>
@@ -45024,7 +45027,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B374" t="s" s="2">
         <v>188</v>
@@ -45035,13 +45038,13 @@
       </c>
       <c r="E374" s="2"/>
       <c r="F374" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G374" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H374" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I374" t="s" s="2">
         <v>77</v>
@@ -45053,7 +45056,7 @@
         <v>101</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M374" t="s" s="2">
         <v>190</v>
@@ -45138,14 +45141,14 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B375" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E375" s="2"/>
       <c r="F375" t="s" s="2">
@@ -45164,13 +45167,13 @@
         <v>77</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N375" s="2"/>
       <c r="O375" s="2"/>
@@ -45239,7 +45242,7 @@
         <v>77</v>
       </c>
       <c r="AL375" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AM375" t="s" s="2">
         <v>77</v>
@@ -45250,7 +45253,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B376" t="s" s="2">
         <v>196</v>
@@ -45362,7 +45365,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B377" t="s" s="2">
         <v>200</v>
@@ -45474,7 +45477,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B378" t="s" s="2">
         <v>201</v>
@@ -45588,7 +45591,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B379" t="s" s="2">
         <v>202</v>
@@ -45704,7 +45707,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B380" t="s" s="2">
         <v>203</v>
@@ -45818,7 +45821,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B381" t="s" s="2">
         <v>209</v>
@@ -45932,7 +45935,7 @@
     </row>
     <row r="382" hidden="true">
       <c r="A382" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B382" t="s" s="2">
         <v>214</v>
@@ -46044,7 +46047,7 @@
     </row>
     <row r="383" hidden="true">
       <c r="A383" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B383" t="s" s="2">
         <v>218</v>
@@ -46156,7 +46159,7 @@
     </row>
     <row r="384" hidden="true">
       <c r="A384" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B384" t="s" s="2">
         <v>219</v>
@@ -46270,7 +46273,7 @@
     </row>
     <row r="385" hidden="true">
       <c r="A385" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B385" t="s" s="2">
         <v>220</v>
@@ -46386,7 +46389,7 @@
     </row>
     <row r="386" hidden="true">
       <c r="A386" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B386" t="s" s="2">
         <v>221</v>
@@ -46498,7 +46501,7 @@
     </row>
     <row r="387" hidden="true">
       <c r="A387" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>226</v>
@@ -46612,7 +46615,7 @@
     </row>
     <row r="388" hidden="true">
       <c r="A388" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>230</v>
@@ -46724,7 +46727,7 @@
     </row>
     <row r="389" hidden="true">
       <c r="A389" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>233</v>
@@ -46836,7 +46839,7 @@
     </row>
     <row r="390" hidden="true">
       <c r="A390" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>235</v>
@@ -46948,7 +46951,7 @@
     </row>
     <row r="391" hidden="true">
       <c r="A391" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>238</v>
@@ -47060,7 +47063,7 @@
     </row>
     <row r="392" hidden="true">
       <c r="A392" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>241</v>
@@ -47172,7 +47175,7 @@
     </row>
     <row r="393" hidden="true">
       <c r="A393" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>245</v>
@@ -47284,7 +47287,7 @@
     </row>
     <row r="394" hidden="true">
       <c r="A394" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>246</v>
@@ -47398,7 +47401,7 @@
     </row>
     <row r="395" hidden="true">
       <c r="A395" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B395" t="s" s="2">
         <v>247</v>
@@ -47514,7 +47517,7 @@
     </row>
     <row r="396" hidden="true">
       <c r="A396" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B396" t="s" s="2">
         <v>248</v>
@@ -47626,7 +47629,7 @@
     </row>
     <row r="397" hidden="true">
       <c r="A397" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B397" t="s" s="2">
         <v>251</v>
@@ -47738,7 +47741,7 @@
     </row>
     <row r="398" hidden="true">
       <c r="A398" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B398" t="s" s="2">
         <v>254</v>
@@ -47852,7 +47855,7 @@
     </row>
     <row r="399" hidden="true">
       <c r="A399" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B399" t="s" s="2">
         <v>258</v>
@@ -47966,7 +47969,7 @@
     </row>
     <row r="400" hidden="true">
       <c r="A400" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B400" t="s" s="2">
         <v>262</v>
@@ -48080,13 +48083,13 @@
     </row>
     <row r="401" hidden="true">
       <c r="A401" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B401" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D401" t="s" s="2">
         <v>77</v>
@@ -48111,7 +48114,7 @@
         <v>145</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M401" t="s" s="2">
         <v>178</v>
@@ -48194,7 +48197,7 @@
     </row>
     <row r="402" hidden="true">
       <c r="A402" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B402" t="s" s="2">
         <v>182</v>
@@ -48306,7 +48309,7 @@
     </row>
     <row r="403" hidden="true">
       <c r="A403" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B403" t="s" s="2">
         <v>183</v>
@@ -48420,7 +48423,7 @@
     </row>
     <row r="404" hidden="true">
       <c r="A404" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B404" t="s" s="2">
         <v>184</v>
@@ -48536,7 +48539,7 @@
     </row>
     <row r="405" hidden="true">
       <c r="A405" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B405" t="s" s="2">
         <v>185</v>
@@ -48648,7 +48651,7 @@
     </row>
     <row r="406" hidden="true">
       <c r="A406" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B406" t="s" s="2">
         <v>188</v>
@@ -48659,13 +48662,13 @@
       </c>
       <c r="E406" s="2"/>
       <c r="F406" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G406" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H406" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I406" t="s" s="2">
         <v>77</v>
@@ -48677,7 +48680,7 @@
         <v>101</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M406" t="s" s="2">
         <v>190</v>
@@ -48762,14 +48765,14 @@
     </row>
     <row r="407" hidden="true">
       <c r="A407" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B407" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E407" s="2"/>
       <c r="F407" t="s" s="2">
@@ -48788,13 +48791,13 @@
         <v>77</v>
       </c>
       <c r="K407" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N407" s="2"/>
       <c r="O407" s="2"/>
@@ -48860,10 +48863,10 @@
         <v>77</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL407" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM407" t="s" s="2">
         <v>77</v>
@@ -48874,7 +48877,7 @@
     </row>
     <row r="408" hidden="true">
       <c r="A408" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B408" t="s" s="2">
         <v>196</v>
@@ -48986,7 +48989,7 @@
     </row>
     <row r="409" hidden="true">
       <c r="A409" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B409" t="s" s="2">
         <v>200</v>
@@ -49098,7 +49101,7 @@
     </row>
     <row r="410" hidden="true">
       <c r="A410" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B410" t="s" s="2">
         <v>201</v>
@@ -49212,7 +49215,7 @@
     </row>
     <row r="411" hidden="true">
       <c r="A411" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B411" t="s" s="2">
         <v>202</v>
@@ -49328,7 +49331,7 @@
     </row>
     <row r="412" hidden="true">
       <c r="A412" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B412" t="s" s="2">
         <v>203</v>
@@ -49442,7 +49445,7 @@
     </row>
     <row r="413" hidden="true">
       <c r="A413" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B413" t="s" s="2">
         <v>209</v>
@@ -49556,7 +49559,7 @@
     </row>
     <row r="414" hidden="true">
       <c r="A414" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B414" t="s" s="2">
         <v>214</v>
@@ -49668,7 +49671,7 @@
     </row>
     <row r="415" hidden="true">
       <c r="A415" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B415" t="s" s="2">
         <v>218</v>
@@ -49780,7 +49783,7 @@
     </row>
     <row r="416" hidden="true">
       <c r="A416" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B416" t="s" s="2">
         <v>219</v>
@@ -49894,7 +49897,7 @@
     </row>
     <row r="417" hidden="true">
       <c r="A417" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B417" t="s" s="2">
         <v>220</v>
@@ -50010,7 +50013,7 @@
     </row>
     <row r="418" hidden="true">
       <c r="A418" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B418" t="s" s="2">
         <v>221</v>
@@ -50122,7 +50125,7 @@
     </row>
     <row r="419" hidden="true">
       <c r="A419" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B419" t="s" s="2">
         <v>226</v>
@@ -50236,7 +50239,7 @@
     </row>
     <row r="420" hidden="true">
       <c r="A420" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B420" t="s" s="2">
         <v>230</v>
@@ -50348,7 +50351,7 @@
     </row>
     <row r="421" hidden="true">
       <c r="A421" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B421" t="s" s="2">
         <v>233</v>
@@ -50460,7 +50463,7 @@
     </row>
     <row r="422" hidden="true">
       <c r="A422" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B422" t="s" s="2">
         <v>235</v>
@@ -50572,7 +50575,7 @@
     </row>
     <row r="423" hidden="true">
       <c r="A423" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B423" t="s" s="2">
         <v>238</v>
@@ -50684,7 +50687,7 @@
     </row>
     <row r="424" hidden="true">
       <c r="A424" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B424" t="s" s="2">
         <v>241</v>
@@ -50796,7 +50799,7 @@
     </row>
     <row r="425" hidden="true">
       <c r="A425" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B425" t="s" s="2">
         <v>245</v>
@@ -50908,7 +50911,7 @@
     </row>
     <row r="426" hidden="true">
       <c r="A426" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B426" t="s" s="2">
         <v>246</v>
@@ -51022,7 +51025,7 @@
     </row>
     <row r="427" hidden="true">
       <c r="A427" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B427" t="s" s="2">
         <v>247</v>
@@ -51138,7 +51141,7 @@
     </row>
     <row r="428" hidden="true">
       <c r="A428" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B428" t="s" s="2">
         <v>248</v>
@@ -51250,7 +51253,7 @@
     </row>
     <row r="429" hidden="true">
       <c r="A429" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B429" t="s" s="2">
         <v>251</v>
@@ -51362,7 +51365,7 @@
     </row>
     <row r="430" hidden="true">
       <c r="A430" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B430" t="s" s="2">
         <v>254</v>
@@ -51476,7 +51479,7 @@
     </row>
     <row r="431" hidden="true">
       <c r="A431" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B431" t="s" s="2">
         <v>258</v>
@@ -51590,7 +51593,7 @@
     </row>
     <row r="432" hidden="true">
       <c r="A432" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B432" t="s" s="2">
         <v>262</v>
@@ -51704,13 +51707,13 @@
     </row>
     <row r="433" hidden="true">
       <c r="A433" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B433" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D433" t="s" s="2">
         <v>77</v>
@@ -51735,7 +51738,7 @@
         <v>145</v>
       </c>
       <c r="L433" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="M433" t="s" s="2">
         <v>178</v>
@@ -51818,7 +51821,7 @@
     </row>
     <row r="434" hidden="true">
       <c r="A434" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B434" t="s" s="2">
         <v>182</v>
@@ -51930,7 +51933,7 @@
     </row>
     <row r="435" hidden="true">
       <c r="A435" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B435" t="s" s="2">
         <v>183</v>
@@ -52044,7 +52047,7 @@
     </row>
     <row r="436" hidden="true">
       <c r="A436" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B436" t="s" s="2">
         <v>184</v>
@@ -52160,7 +52163,7 @@
     </row>
     <row r="437" hidden="true">
       <c r="A437" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B437" t="s" s="2">
         <v>185</v>
@@ -52272,7 +52275,7 @@
     </row>
     <row r="438" hidden="true">
       <c r="A438" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B438" t="s" s="2">
         <v>188</v>
@@ -52283,13 +52286,13 @@
       </c>
       <c r="E438" s="2"/>
       <c r="F438" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G438" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H438" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I438" t="s" s="2">
         <v>77</v>
@@ -52301,7 +52304,7 @@
         <v>101</v>
       </c>
       <c r="L438" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M438" t="s" s="2">
         <v>190</v>
@@ -52386,14 +52389,14 @@
     </row>
     <row r="439" hidden="true">
       <c r="A439" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B439" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E439" s="2"/>
       <c r="F439" t="s" s="2">
@@ -52412,16 +52415,16 @@
         <v>77</v>
       </c>
       <c r="K439" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L439" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M439" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N439" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O439" s="2"/>
       <c r="P439" t="s" s="2">
@@ -52486,10 +52489,10 @@
         <v>77</v>
       </c>
       <c r="AK439" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL439" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AM439" t="s" s="2">
         <v>77</v>
@@ -52500,7 +52503,7 @@
     </row>
     <row r="440" hidden="true">
       <c r="A440" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B440" t="s" s="2">
         <v>196</v>
@@ -52612,7 +52615,7 @@
     </row>
     <row r="441" hidden="true">
       <c r="A441" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B441" t="s" s="2">
         <v>200</v>
@@ -52724,7 +52727,7 @@
     </row>
     <row r="442" hidden="true">
       <c r="A442" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B442" t="s" s="2">
         <v>201</v>
@@ -52838,7 +52841,7 @@
     </row>
     <row r="443" hidden="true">
       <c r="A443" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B443" t="s" s="2">
         <v>202</v>
@@ -52954,7 +52957,7 @@
     </row>
     <row r="444" hidden="true">
       <c r="A444" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B444" t="s" s="2">
         <v>203</v>
@@ -53068,7 +53071,7 @@
     </row>
     <row r="445" hidden="true">
       <c r="A445" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B445" t="s" s="2">
         <v>209</v>
@@ -53182,7 +53185,7 @@
     </row>
     <row r="446" hidden="true">
       <c r="A446" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B446" t="s" s="2">
         <v>214</v>
@@ -53294,7 +53297,7 @@
     </row>
     <row r="447" hidden="true">
       <c r="A447" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B447" t="s" s="2">
         <v>218</v>
@@ -53406,7 +53409,7 @@
     </row>
     <row r="448" hidden="true">
       <c r="A448" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B448" t="s" s="2">
         <v>219</v>
@@ -53520,7 +53523,7 @@
     </row>
     <row r="449" hidden="true">
       <c r="A449" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B449" t="s" s="2">
         <v>220</v>
@@ -53636,7 +53639,7 @@
     </row>
     <row r="450" hidden="true">
       <c r="A450" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B450" t="s" s="2">
         <v>221</v>
@@ -53748,7 +53751,7 @@
     </row>
     <row r="451" hidden="true">
       <c r="A451" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B451" t="s" s="2">
         <v>226</v>
@@ -53862,7 +53865,7 @@
     </row>
     <row r="452" hidden="true">
       <c r="A452" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B452" t="s" s="2">
         <v>230</v>
@@ -53974,7 +53977,7 @@
     </row>
     <row r="453" hidden="true">
       <c r="A453" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B453" t="s" s="2">
         <v>233</v>
@@ -54086,7 +54089,7 @@
     </row>
     <row r="454" hidden="true">
       <c r="A454" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B454" t="s" s="2">
         <v>235</v>
@@ -54198,7 +54201,7 @@
     </row>
     <row r="455" hidden="true">
       <c r="A455" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B455" t="s" s="2">
         <v>238</v>
@@ -54310,7 +54313,7 @@
     </row>
     <row r="456" hidden="true">
       <c r="A456" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B456" t="s" s="2">
         <v>241</v>
@@ -54422,7 +54425,7 @@
     </row>
     <row r="457" hidden="true">
       <c r="A457" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B457" t="s" s="2">
         <v>245</v>
@@ -54534,7 +54537,7 @@
     </row>
     <row r="458" hidden="true">
       <c r="A458" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B458" t="s" s="2">
         <v>246</v>
@@ -54648,7 +54651,7 @@
     </row>
     <row r="459" hidden="true">
       <c r="A459" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B459" t="s" s="2">
         <v>247</v>
@@ -54764,7 +54767,7 @@
     </row>
     <row r="460" hidden="true">
       <c r="A460" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B460" t="s" s="2">
         <v>248</v>
@@ -54876,7 +54879,7 @@
     </row>
     <row r="461" hidden="true">
       <c r="A461" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B461" t="s" s="2">
         <v>251</v>
@@ -54988,7 +54991,7 @@
     </row>
     <row r="462" hidden="true">
       <c r="A462" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B462" t="s" s="2">
         <v>254</v>
@@ -55102,7 +55105,7 @@
     </row>
     <row r="463" hidden="true">
       <c r="A463" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B463" t="s" s="2">
         <v>258</v>
@@ -55216,7 +55219,7 @@
     </row>
     <row r="464" hidden="true">
       <c r="A464" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B464" t="s" s="2">
         <v>262</v>
@@ -55330,10 +55333,10 @@
     </row>
     <row r="465" hidden="true">
       <c r="A465" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" t="s" s="2">
@@ -55356,19 +55359,19 @@
         <v>88</v>
       </c>
       <c r="K465" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L465" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="M465" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="N465" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="O465" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="P465" t="s" s="2">
         <v>77</v>
@@ -55417,7 +55420,7 @@
         <v>77</v>
       </c>
       <c r="AF465" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AG465" t="s" s="2">
         <v>78</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -622,7 +622,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -2728,17 +2728,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.70703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.93359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.09765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.87890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2747,26 +2747,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="75.36328125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.46875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="66.87109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8234,7 +8234,7 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>77</v>
@@ -11858,7 +11858,7 @@
         <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>77</v>
@@ -15482,7 +15482,7 @@
         <v>87</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>77</v>
@@ -19106,7 +19106,7 @@
         <v>87</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>77</v>
@@ -22730,7 +22730,7 @@
         <v>87</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>77</v>
@@ -26354,7 +26354,7 @@
         <v>87</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I209" t="s" s="2">
         <v>77</v>
@@ -29978,7 +29978,7 @@
         <v>87</v>
       </c>
       <c r="H241" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I241" t="s" s="2">
         <v>77</v>
@@ -33602,7 +33602,7 @@
         <v>79</v>
       </c>
       <c r="H273" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I273" t="s" s="2">
         <v>77</v>
@@ -37226,7 +37226,7 @@
         <v>79</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>77</v>
@@ -40852,7 +40852,7 @@
         <v>79</v>
       </c>
       <c r="H337" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I337" t="s" s="2">
         <v>77</v>
@@ -44478,7 +44478,7 @@
         <v>79</v>
       </c>
       <c r="H369" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I369" t="s" s="2">
         <v>77</v>
@@ -48102,7 +48102,7 @@
         <v>79</v>
       </c>
       <c r="H401" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I401" t="s" s="2">
         <v>77</v>
@@ -51726,7 +51726,7 @@
         <v>87</v>
       </c>
       <c r="H433" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I433" t="s" s="2">
         <v>77</v>
